--- a/PWM_values/Arctos_xmc4700_pinsetting.xlsx
+++ b/PWM_values/Arctos_xmc4700_pinsetting.xlsx
@@ -302,9 +302,6 @@
     <t xml:space="preserve">P15.7    X1-16</t>
   </si>
   <si>
-    <t xml:space="preserve">EN5</t>
-  </si>
-  <si>
     <t xml:space="preserve">P5.3     X2-15</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
     <t xml:space="preserve">P5.6     X2-26</t>
   </si>
   <si>
+    <t xml:space="preserve">EN6</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3.7</t>
   </si>
   <si>
@@ -440,9 +440,6 @@
     <t xml:space="preserve">P2.6     X2-28</t>
   </si>
   <si>
-    <t xml:space="preserve">EN6</t>
-  </si>
-  <si>
     <t xml:space="preserve">P3.9</t>
   </si>
   <si>
@@ -548,7 +545,7 @@
     <t xml:space="preserve">CS3</t>
   </si>
   <si>
-    <t xml:space="preserve">IFX007_7</t>
+    <t xml:space="preserve">PWM</t>
   </si>
   <si>
     <t xml:space="preserve">Gripper</t>
@@ -612,6 +609,9 @@
   </si>
   <si>
     <t xml:space="preserve">P15.12 (INPUT ONLY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 </t>
   </si>
   <si>
     <t xml:space="preserve">P4.1</t>
@@ -652,7 +652,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -675,7 +674,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
@@ -683,14 +681,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -732,8 +728,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
         <bgColor rgb="FF9DC3E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -744,14 +752,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFAA95"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF3E4BF7"/>
+        <bgColor rgb="FF333399"/>
       </patternFill>
     </fill>
     <fill>
@@ -764,12 +766,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF70AD47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3E4BF7"/>
-        <bgColor rgb="FF333399"/>
       </patternFill>
     </fill>
     <fill>
@@ -842,6 +838,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top/>
@@ -851,13 +854,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
@@ -888,7 +884,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1013,10 +1009,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1029,14 +1033,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,7 +1053,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1053,19 +1069,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,35 +1113,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,7 +1125,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1129,19 +1141,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1260,14 +1272,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1275,67 +1287,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1354,35 +1324,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1406,12 +1352,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="n">
         <v>10</v>
       </c>
@@ -1479,7 +1425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="2" t="n">
         <v>11</v>
       </c>
@@ -1490,7 +1436,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1507,7 +1454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
@@ -1518,7 +1465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="2" t="n">
         <v>6</v>
       </c>
@@ -1529,7 +1476,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1549,7 +1497,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="n">
         <v>36</v>
       </c>
@@ -1560,7 +1508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="n">
         <v>66</v>
       </c>
@@ -1571,7 +1519,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="2" t="n">
         <v>61</v>
       </c>
@@ -1602,7 +1551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2" t="n">
         <v>62</v>
       </c>
@@ -1613,7 +1562,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="2" t="n">
         <v>76</v>
       </c>
@@ -1644,7 +1594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="2" t="n">
         <v>77</v>
       </c>
@@ -1655,7 +1605,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1623,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="n">
         <v>80</v>
       </c>
@@ -1683,7 +1634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2" t="n">
         <v>81</v>
       </c>
@@ -1694,7 +1645,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1740,7 +1692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1715,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1738,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1848,10 +1800,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:T38"/>
+  <dimension ref="B1:T38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,7 +1824,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="25.88"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -1890,7 +1843,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1867,7 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
@@ -1932,7 +1885,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
@@ -1978,7 +1931,7 @@
       </c>
       <c r="T5" s="17"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="27" t="s">
         <v>28</v>
       </c>
@@ -2015,7 +1968,7 @@
       <c r="O6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="17"/>
+      <c r="P6" s="31"/>
       <c r="R6" s="14" t="n">
         <v>1</v>
       </c>
@@ -2024,7 +1977,7 @@
       </c>
       <c r="T6" s="17"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +1993,7 @@
       <c r="F7" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="32" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="18" t="s">
@@ -2061,18 +2014,18 @@
       <c r="O7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="17"/>
+      <c r="P7" s="33"/>
       <c r="R7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="S7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="23" t="s">
         <v>47</v>
       </c>
@@ -2088,19 +2041,19 @@
       <c r="F8" s="28" t="n">
         <v>64</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="35" t="n">
+      <c r="K8" s="37" t="n">
         <v>71</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="38" t="s">
         <v>53</v>
       </c>
       <c r="M8" s="29" t="s">
@@ -2112,18 +2065,18 @@
       <c r="O8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="17"/>
+      <c r="P8" s="39"/>
       <c r="R8" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="40" t="s">
         <v>56</v>
       </c>
       <c r="T8" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="23" t="s">
         <v>58</v>
       </c>
@@ -2139,19 +2092,19 @@
       <c r="F9" s="24" t="n">
         <v>63</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="35" t="n">
+      <c r="K9" s="37" t="n">
         <v>72</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="M9" s="29" t="s">
@@ -2163,19 +2116,19 @@
       <c r="O9" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="17"/>
+      <c r="P9" s="43"/>
       <c r="R9" s="14" t="n">
         <v>4</v>
       </c>
       <c r="S9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="T9" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="34" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="36" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="15" t="n">
@@ -2193,16 +2146,16 @@
       <c r="G10" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="35" t="n">
+      <c r="K10" s="37" t="n">
         <v>73</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="38" t="s">
         <v>75</v>
       </c>
       <c r="M10" s="16" t="s">
@@ -2212,7 +2165,7 @@
         <v>90</v>
       </c>
       <c r="O10" s="15"/>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="32" t="s">
         <v>77</v>
       </c>
       <c r="R10" s="18" t="n">
@@ -2225,8 +2178,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="36" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="15" t="n">
@@ -2244,16 +2197,16 @@
       <c r="G11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="35" t="n">
+      <c r="K11" s="37" t="n">
         <v>74</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="38" t="s">
         <v>86</v>
       </c>
       <c r="M11" s="21" t="s">
@@ -2274,37 +2227,35 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="43" t="n">
+      <c r="C12" s="47" t="n">
         <v>41</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="43" t="n">
+      <c r="F12" s="47" t="n">
         <v>60</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="44" t="s">
-        <v>93</v>
-      </c>
+      <c r="I12" s="48"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15" t="n">
         <v>75</v>
       </c>
       <c r="L12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="N12" s="15" t="n">
         <v>88</v>
@@ -2315,90 +2266,90 @@
         <v>7</v>
       </c>
       <c r="S12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="T12" s="32" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="47" t="n">
+        <v>42</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="42" t="s">
+      <c r="E13" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="47" t="n">
+        <v>59</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="43" t="n">
-        <v>42</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="42" t="s">
+      <c r="J13" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="F13" s="43" t="n">
-        <v>59</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="K13" s="19" t="n">
         <v>76</v>
       </c>
       <c r="L13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="N13" s="15" t="n">
         <v>87</v>
       </c>
       <c r="O13" s="15"/>
-      <c r="P13" s="31" t="s">
-        <v>103</v>
+      <c r="P13" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="R13" s="14" t="n">
         <v>8</v>
       </c>
       <c r="S13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="T13" s="32" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="47" t="n">
+        <v>43</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="42" t="s">
+      <c r="E14" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="47" t="n">
+        <v>58</v>
+      </c>
+      <c r="G14" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="43" t="n">
-        <v>43</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="J14" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="F14" s="43" t="n">
-        <v>58</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="K14" s="19" t="n">
         <v>77</v>
       </c>
       <c r="L14" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="N14" s="15" t="n">
         <v>86</v>
@@ -2409,42 +2360,42 @@
         <v>9</v>
       </c>
       <c r="S14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T14" s="30" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="47" t="n">
+        <v>44</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="42" t="s">
+      <c r="E15" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="47" t="n">
+        <v>57</v>
+      </c>
+      <c r="G15" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="43" t="n">
-        <v>44</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="J15" s="36" t="s">
         <v>114</v>
-      </c>
-      <c r="F15" s="43" t="n">
-        <v>57</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>115</v>
       </c>
       <c r="K15" s="15" t="n">
         <v>78</v>
       </c>
       <c r="L15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="N15" s="15" t="n">
         <v>85</v>
@@ -2455,42 +2406,42 @@
         <v>10</v>
       </c>
       <c r="S15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="30" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="42" t="s">
+      <c r="E16" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="47" t="n">
+        <v>56</v>
+      </c>
+      <c r="G16" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="43" t="n">
-        <v>45</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="42" t="s">
+      <c r="J16" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="43" t="n">
-        <v>56</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="K16" s="19" t="n">
         <v>79</v>
       </c>
       <c r="L16" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="N16" s="15" t="n">
         <v>84</v>
@@ -2501,406 +2452,411 @@
         <v>11</v>
       </c>
       <c r="S16" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="T16" s="30" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="42" t="s">
+      <c r="E17" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="47" t="n">
+        <v>55</v>
+      </c>
+      <c r="G17" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="43" t="n">
-        <v>46</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="42" t="s">
+      <c r="J17" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="F17" s="43" t="n">
-        <v>55</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="K17" s="19" t="n">
         <v>80</v>
       </c>
       <c r="L17" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="N17" s="15" t="n">
         <v>83</v>
       </c>
       <c r="O17" s="15"/>
-      <c r="P17" s="17"/>
+      <c r="P17" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="R17" s="14" t="n">
         <v>12</v>
       </c>
       <c r="S17" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="T17" s="32" t="s">
+      <c r="T17" s="34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="42" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="43" t="n">
+      <c r="C18" s="47" t="n">
         <v>47</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="43" t="n">
+      <c r="F18" s="47" t="n">
         <v>54</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="46" t="n">
+      <c r="K18" s="50" t="n">
         <v>81</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L18" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="49" t="n">
+      <c r="N18" s="53" t="n">
         <v>82</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50" t="s">
-        <v>139</v>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54" t="n">
+        <v>0</v>
       </c>
       <c r="R18" s="14" t="n">
         <v>13</v>
       </c>
       <c r="S18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="T18" s="32" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="47" t="n">
+        <v>48</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="43" t="n">
-        <v>48</v>
-      </c>
-      <c r="D19" s="42" t="s">
+      <c r="E19" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="F19" s="15" t="n">
         <v>53</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>144</v>
+      <c r="G19" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="R19" s="14" t="n">
         <v>14</v>
       </c>
       <c r="S19" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="36" t="s">
         <v>145</v>
-      </c>
-      <c r="T19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="34" t="s">
-        <v>146</v>
       </c>
       <c r="C20" s="15" t="n">
         <v>49</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="F20" s="15" t="n">
         <v>52</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>149</v>
+      <c r="G20" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="14" t="n">
         <v>15</v>
       </c>
       <c r="S20" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="T20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="51" t="s">
+      <c r="C21" s="53" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="49" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" s="48" t="s">
+      <c r="E21" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="F21" s="50" t="n">
+        <v>51</v>
+      </c>
+      <c r="G21" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="46" t="n">
-        <v>51</v>
-      </c>
-      <c r="G21" s="52" t="s">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="57" t="n">
+        <v>16</v>
+      </c>
+      <c r="S21" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="53" t="n">
-        <v>16</v>
-      </c>
-      <c r="S21" s="43" t="s">
+      <c r="T21" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="57" t="n">
+        <v>17</v>
+      </c>
+      <c r="S22" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="T21" s="43" t="s">
+      <c r="T22" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="1"/>
-      <c r="R22" s="53" t="n">
-        <v>17</v>
-      </c>
-      <c r="S22" s="43" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="T22" s="43" t="s">
+      <c r="J23" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="57" t="n">
+        <v>18</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="53" t="n">
-        <v>18</v>
-      </c>
-      <c r="S23" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="T23" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="F24" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="I24" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="J24" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="57" t="n">
+        <v>19</v>
+      </c>
+      <c r="S24" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="53" t="n">
-        <v>19</v>
-      </c>
-      <c r="S24" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="T24" s="43" t="s">
+      <c r="T24" s="47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="F25" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="I25" s="39" t="s">
+      <c r="J25" s="42" t="s">
         <v>170</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>171</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="14" t="n">
         <v>20</v>
       </c>
       <c r="S25" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="T25" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="T25" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="62" t="s">
         <v>175</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>176</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="14" t="n">
         <v>21</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T26" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="I27" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="J27" s="63" t="s">
         <v>180</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>181</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="14" t="n">
         <v>22</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T27" s="17"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="14"/>
       <c r="C28" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="I28" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="J28" s="45" t="s">
         <v>185</v>
-      </c>
-      <c r="J28" s="41" t="s">
-        <v>186</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="14" t="n">
         <v>23</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="14"/>
       <c r="C29" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="I29" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="J29" s="54" t="s">
         <v>191</v>
-      </c>
-      <c r="J29" s="44" t="s">
-        <v>192</v>
       </c>
       <c r="R29" s="14" t="n">
         <v>24</v>
       </c>
       <c r="S29" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="T29" s="17"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="48" t="s">
+      <c r="E30" s="66" t="s">
         <v>194</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>195</v>
       </c>
       <c r="R30" s="14" t="n">
         <v>25</v>
       </c>
       <c r="S30" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T30" s="17"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R31" s="14" t="n">
         <v>26</v>
       </c>
@@ -2909,7 +2865,7 @@
       </c>
       <c r="T31" s="17"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R32" s="14" t="n">
         <v>27</v>
       </c>
@@ -2918,7 +2874,7 @@
       </c>
       <c r="T32" s="17"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R33" s="14" t="n">
         <v>28</v>
       </c>
@@ -2927,7 +2883,7 @@
       </c>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R34" s="14" t="n">
         <v>29</v>
       </c>
@@ -2936,7 +2892,7 @@
       </c>
       <c r="T34" s="17"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R35" s="14" t="n">
         <v>30</v>
       </c>
@@ -2945,7 +2901,7 @@
       </c>
       <c r="T35" s="17"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R36" s="14" t="n">
         <v>31</v>
       </c>
@@ -2954,7 +2910,7 @@
       </c>
       <c r="T36" s="17"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R37" s="14" t="n">
         <v>32</v>
       </c>
@@ -2963,14 +2919,14 @@
       </c>
       <c r="T37" s="17"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R38" s="60" t="n">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R38" s="64" t="n">
         <v>33</v>
       </c>
-      <c r="S38" s="61" t="s">
+      <c r="S38" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="T38" s="63"/>
+      <c r="T38" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
